--- a/biology/Médecine/Frère_Florent/Frère_Florent.xlsx
+++ b/biology/Médecine/Frère_Florent/Frère_Florent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_Florent</t>
+          <t>Frère_Florent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frère Florent, né Florent Priuli, est un missionnaire italien, docteur en médecine, investi dans le secteur humanitaire. Il dirige l'hôpital Saint Jean de Dieu de Tanguiéta au Bénin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_Florent</t>
+          <t>Frère_Florent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie et éducation
-Frère Florent Priuli est d'origine italienne[1]. Il fait partie de l'ordre des hospitaliers de Saint Jean de Dieu[2].
-Humanitaire
-Frère Florent Priuli est investi dans l'hôpital Saint Jean de Dieu de Tanguiéta depuis 1979[1].
+          <t>Vie et éducation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frère Florent Priuli est d'origine italienne. Il fait partie de l'ordre des hospitaliers de Saint Jean de Dieu.
 </t>
         </is>
       </c>
@@ -527,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_Florent</t>
+          <t>Frère_Florent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Charisme</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Afrique, il est appelé le sorcier blanc[1]. Certains disent qu'il a les mains en or[2].
-En Europe, son aura de bienveillance lui permet de toucher un grand nombre de médecins comme le Docteur Charles-Henry Rochat[3],[4], mais aussi de très nombreux bénévoles qui partent en mission pour des durées plus ou moins longues[5],[6].
-Il convainc des mécènes pour investir et acquérir du matériel[7].
+          <t>Humanitaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frère Florent Priuli est investi dans l'hôpital Saint Jean de Dieu de Tanguiéta depuis 1979.
 </t>
         </is>
       </c>
@@ -560,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_Florent</t>
+          <t>Frère_Florent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +594,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Charisme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Afrique, il est appelé le sorcier blanc. Certains disent qu'il a les mains en or.
+En Europe, son aura de bienveillance lui permet de toucher un grand nombre de médecins comme le Docteur Charles-Henry Rochat mais aussi de très nombreux bénévoles qui partent en mission pour des durées plus ou moins longues,.
+Il convainc des mécènes pour investir et acquérir du matériel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frère_Florent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_Florent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2015, le Frère Florent Priuli de Tanguiéta célèbre son Jubilé d'or pour 50 ans de vie religieuse dont 30 années d’affilées consacrées au service des malades[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2015, le Frère Florent Priuli de Tanguiéta célèbre son Jubilé d'or pour 50 ans de vie religieuse dont 30 années d’affilées consacrées au service des malades.
 </t>
         </is>
       </c>
